--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/roubo/cv124122a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/roubo/cv124122a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>coeficientes de variação das estimativas de distribuição das pessoas de 10 anos ou mais de idade que procuraram a polícia  em decorrência do último roubo que foram vítimas, no período de referência de 365 dias, mas não fizeram registro do último roubo na delegacia de polícia (%)</t>
   </si>
@@ -43,18 +43,12 @@
     <t>total (1)</t>
   </si>
   <si>
-    <t>sexo</t>
-  </si>
-  <si>
     <t>homens</t>
   </si>
   <si>
     <t>mulheres</t>
   </si>
   <si>
-    <t>cor ou raça</t>
-  </si>
-  <si>
     <t>branca</t>
   </si>
   <si>
@@ -67,9 +61,6 @@
     <t>parda</t>
   </si>
   <si>
-    <t>grupos de idade</t>
-  </si>
-  <si>
     <t>10 a 24 anos</t>
   </si>
   <si>
@@ -85,9 +76,6 @@
     <t>50 anos ou mais</t>
   </si>
   <si>
-    <t>classes de rendimento mensal domiciliar per capita</t>
-  </si>
-  <si>
     <t>total (2)(3)</t>
   </si>
   <si>
@@ -104,9 +92,6 @@
   </si>
   <si>
     <t xml:space="preserve">2 salários mínimos ou mais (2) </t>
-  </si>
-  <si>
-    <t>fonte: ibge, diretoria de pesquisas, coordenação de trabalho e rendimento, pesquisa nacional por amostra de domicílios 2009.</t>
   </si>
 </sst>
 </file>
@@ -464,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -536,6 +521,27 @@
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>18.61336761594094</v>
+      </c>
+      <c r="D5">
+        <v>17.67733992586085</v>
+      </c>
+      <c r="E5">
+        <v>10.06371111010194</v>
+      </c>
+      <c r="F5">
+        <v>15.55539498261822</v>
+      </c>
+      <c r="G5">
+        <v>11.72049372862559</v>
+      </c>
+      <c r="H5">
+        <v>14.46268328291553</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
@@ -545,22 +551,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>18.61336761594094</v>
+        <v>20.37483999072911</v>
       </c>
       <c r="D6">
-        <v>17.67733992586085</v>
+        <v>15.30963949539241</v>
       </c>
       <c r="E6">
-        <v>10.06371111010194</v>
+        <v>11.95563838173938</v>
       </c>
       <c r="F6">
-        <v>15.55539498261822</v>
+        <v>13.79862663786519</v>
       </c>
       <c r="G6">
-        <v>11.72049372862559</v>
+        <v>15.28685343276711</v>
       </c>
       <c r="H6">
-        <v>14.46268328291553</v>
+        <v>15.372417557648</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -571,28 +577,49 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>20.37483999072911</v>
+        <v>20.47954430158927</v>
       </c>
       <c r="D7">
-        <v>15.30963949539241</v>
+        <v>19.27343389293302</v>
       </c>
       <c r="E7">
-        <v>11.95563838173938</v>
+        <v>12.53643030212608</v>
       </c>
       <c r="F7">
-        <v>13.79862663786519</v>
+        <v>15.43207131570169</v>
       </c>
       <c r="G7">
-        <v>15.28685343276711</v>
+        <v>14.00624370927504</v>
       </c>
       <c r="H7">
-        <v>15.372417557648</v>
+        <v>15.31087904590171</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>18.60392521527298</v>
+      </c>
+      <c r="D8">
+        <v>14.63445675997064</v>
+      </c>
+      <c r="E8">
+        <v>10.69707027723471</v>
+      </c>
+      <c r="F8">
+        <v>13.54894212195411</v>
+      </c>
+      <c r="G8">
+        <v>13.26623418521307</v>
+      </c>
+      <c r="H8">
+        <v>14.83949980218152</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
@@ -602,22 +629,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>20.47954430158927</v>
+        <v>50.77470230492349</v>
       </c>
       <c r="D9">
-        <v>19.27343389293302</v>
+        <v>40.36904786656068</v>
       </c>
       <c r="E9">
-        <v>12.53643030212608</v>
+        <v>31.93372316819621</v>
       </c>
       <c r="F9">
-        <v>15.43207131570169</v>
+        <v>41.49489944768758</v>
       </c>
       <c r="G9">
-        <v>14.00624370927504</v>
+        <v>41.46240276127148</v>
       </c>
       <c r="H9">
-        <v>15.31087904590171</v>
+        <v>31.5638204312101</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -628,22 +655,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>18.60392521527298</v>
+        <v>19.66458001081407</v>
       </c>
       <c r="D10">
-        <v>14.63445675997064</v>
+        <v>15.24366064143314</v>
       </c>
       <c r="E10">
-        <v>10.69707027723471</v>
+        <v>10.95412369762643</v>
       </c>
       <c r="F10">
-        <v>13.54894212195411</v>
+        <v>14.40367651628607</v>
       </c>
       <c r="G10">
-        <v>13.26623418521307</v>
+        <v>13.62425598855763</v>
       </c>
       <c r="H10">
-        <v>14.83949980218152</v>
+        <v>13.94085326266224</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -654,22 +681,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>50.77470230492349</v>
+        <v>21.83640618865889</v>
       </c>
       <c r="D11">
-        <v>40.36904786656068</v>
+        <v>17.70356934407587</v>
       </c>
       <c r="E11">
-        <v>31.93372316819621</v>
+        <v>13.39119052729102</v>
       </c>
       <c r="F11">
-        <v>41.49489944768758</v>
+        <v>17.75453768918399</v>
       </c>
       <c r="G11">
-        <v>41.46240276127148</v>
+        <v>13.36898000407633</v>
       </c>
       <c r="H11">
-        <v>31.5638204312101</v>
+        <v>17.02767344272886</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -680,28 +707,49 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>19.66458001081407</v>
+        <v>31.75908731867528</v>
       </c>
       <c r="D12">
-        <v>15.24366064143314</v>
+        <v>22.95378013482152</v>
       </c>
       <c r="E12">
-        <v>10.95412369762643</v>
+        <v>16.97517703063845</v>
       </c>
       <c r="F12">
-        <v>14.40367651628607</v>
+        <v>20.47442477236218</v>
       </c>
       <c r="G12">
-        <v>13.62425598855763</v>
+        <v>21.1054746084347</v>
       </c>
       <c r="H12">
-        <v>13.94085326266224</v>
+        <v>22.24408304843826</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>57.3238177147783</v>
+      </c>
+      <c r="D13">
+        <v>43.81971417516279</v>
+      </c>
+      <c r="E13">
+        <v>34.45351143140969</v>
+      </c>
+      <c r="F13">
+        <v>27.75718274728465</v>
+      </c>
+      <c r="G13">
+        <v>35.42648517892747</v>
+      </c>
+      <c r="H13">
+        <v>33.00790314098916</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
@@ -711,22 +759,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>21.83640618865889</v>
+        <v>28.56978407408448</v>
       </c>
       <c r="D14">
-        <v>17.70356934407587</v>
+        <v>31.55758850358425</v>
       </c>
       <c r="E14">
-        <v>13.39119052729102</v>
+        <v>19.1424634525386</v>
       </c>
       <c r="F14">
-        <v>17.75453768918399</v>
+        <v>24.24604382991806</v>
       </c>
       <c r="G14">
-        <v>13.36898000407633</v>
+        <v>25.40626348671394</v>
       </c>
       <c r="H14">
-        <v>17.02767344272886</v>
+        <v>26.21477066553194</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -737,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>31.75908731867528</v>
+        <v>35.20540020370256</v>
       </c>
       <c r="D15">
-        <v>22.95378013482152</v>
+        <v>33.27083560022201</v>
       </c>
       <c r="E15">
-        <v>16.97517703063845</v>
+        <v>17.17808325354692</v>
       </c>
       <c r="F15">
-        <v>20.47442477236218</v>
+        <v>30.48193046209287</v>
       </c>
       <c r="G15">
-        <v>21.1054746084347</v>
+        <v>28.10973515411363</v>
       </c>
       <c r="H15">
-        <v>22.24408304843826</v>
+        <v>20.6017989617466</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -763,22 +811,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>57.3238177147783</v>
+        <v>14.05180628665025</v>
       </c>
       <c r="D16">
-        <v>43.81971417516279</v>
+        <v>11.76674859927713</v>
       </c>
       <c r="E16">
-        <v>34.45351143140969</v>
+        <v>8.121141136242692</v>
       </c>
       <c r="F16">
-        <v>27.75718274728465</v>
+        <v>10.46437922298714</v>
       </c>
       <c r="G16">
-        <v>35.42648517892747</v>
+        <v>9.794936463562909</v>
       </c>
       <c r="H16">
-        <v>33.00790314098916</v>
+        <v>11.49616307147705</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -789,22 +837,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>28.56978407408448</v>
+        <v>39.15186264013256</v>
       </c>
       <c r="D17">
-        <v>31.55758850358425</v>
+        <v>53.76181062987694</v>
       </c>
       <c r="E17">
-        <v>19.1424634525386</v>
+        <v>31.77701535911633</v>
       </c>
       <c r="F17">
-        <v>24.24604382991806</v>
+        <v>41.01712925831995</v>
       </c>
       <c r="G17">
-        <v>25.40626348671394</v>
+        <v>28.4708352235727</v>
       </c>
       <c r="H17">
-        <v>26.21477066553194</v>
+        <v>34.83798338365317</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -815,28 +863,49 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>35.20540020370256</v>
+        <v>35.45394222009018</v>
       </c>
       <c r="D18">
-        <v>33.27083560022201</v>
+        <v>30.22024699654179</v>
       </c>
       <c r="E18">
-        <v>17.17808325354692</v>
+        <v>19.44852419356651</v>
       </c>
       <c r="F18">
-        <v>30.48193046209287</v>
+        <v>31.99503171057136</v>
       </c>
       <c r="G18">
-        <v>28.10973515411363</v>
+        <v>24.95765832206005</v>
       </c>
       <c r="H18">
-        <v>20.6017989617466</v>
+        <v>37.13365283518739</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>25.96220601560324</v>
+      </c>
+      <c r="D19">
+        <v>23.40585999930116</v>
+      </c>
+      <c r="E19">
+        <v>15.124526741311</v>
+      </c>
+      <c r="F19">
+        <v>18.82071629966905</v>
+      </c>
+      <c r="G19">
+        <v>18.12434260849814</v>
+      </c>
+      <c r="H19">
+        <v>23.22368607119289</v>
+      </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
@@ -846,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>14.05180628665025</v>
+        <v>26.94599826248338</v>
       </c>
       <c r="D20">
-        <v>11.76674859927713</v>
+        <v>22.5631599851891</v>
       </c>
       <c r="E20">
-        <v>8.121141136242692</v>
+        <v>16.76921205011851</v>
       </c>
       <c r="F20">
-        <v>10.46437922298714</v>
+        <v>19.53292371269059</v>
       </c>
       <c r="G20">
-        <v>9.794936463562909</v>
+        <v>19.28153483243367</v>
       </c>
       <c r="H20">
-        <v>11.49616307147705</v>
+        <v>18.11288954083122</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -872,131 +941,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>39.15186264013256</v>
+        <v>31.39665097565099</v>
       </c>
       <c r="D21">
-        <v>53.76181062987694</v>
+        <v>20.80762918974545</v>
       </c>
       <c r="E21">
-        <v>31.77701535911633</v>
+        <v>16.00652041016211</v>
       </c>
       <c r="F21">
-        <v>41.01712925831995</v>
+        <v>24.26547471767553</v>
       </c>
       <c r="G21">
-        <v>28.4708352235727</v>
+        <v>19.97814641007981</v>
       </c>
       <c r="H21">
-        <v>34.83798338365317</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>35.45394222009018</v>
-      </c>
-      <c r="D22">
-        <v>30.22024699654179</v>
-      </c>
-      <c r="E22">
-        <v>19.44852419356651</v>
-      </c>
-      <c r="F22">
-        <v>31.99503171057136</v>
-      </c>
-      <c r="G22">
-        <v>24.95765832206005</v>
-      </c>
-      <c r="H22">
-        <v>37.13365283518739</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>25.96220601560324</v>
-      </c>
-      <c r="D23">
-        <v>23.40585999930116</v>
-      </c>
-      <c r="E23">
-        <v>15.124526741311</v>
-      </c>
-      <c r="F23">
-        <v>18.82071629966905</v>
-      </c>
-      <c r="G23">
-        <v>18.12434260849814</v>
-      </c>
-      <c r="H23">
-        <v>23.22368607119289</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>26.94599826248338</v>
-      </c>
-      <c r="D24">
-        <v>22.5631599851891</v>
-      </c>
-      <c r="E24">
-        <v>16.76921205011851</v>
-      </c>
-      <c r="F24">
-        <v>19.53292371269059</v>
-      </c>
-      <c r="G24">
-        <v>19.28153483243367</v>
-      </c>
-      <c r="H24">
-        <v>18.11288954083122</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>31.39665097565099</v>
-      </c>
-      <c r="D25">
-        <v>20.80762918974545</v>
-      </c>
-      <c r="E25">
-        <v>16.00652041016211</v>
-      </c>
-      <c r="F25">
-        <v>24.26547471767553</v>
-      </c>
-      <c r="G25">
-        <v>19.97814641007981</v>
-      </c>
-      <c r="H25">
         <v>21.68276654007881</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
